--- a/files/texts.xlsx
+++ b/files/texts.xlsx
@@ -1,45 +1,407 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jiexin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\MusicModeForYoutubePrivate\MusicModeForYoutube\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0C05C-07B0-4512-A2B0-BBF219597B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24975" windowHeight="10155"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
+    <sheet name="Basic" sheetId="2" r:id="rId2"/>
+    <sheet name="More" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="191029" calcOnSave="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+  <si>
+    <t>Blocks the video keeping only the audio on YouTube and YouTube Music.</t>
+  </si>
+  <si>
+    <t>Other sites</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>Donate</t>
+  </si>
+  <si>
+    <t>Donation</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Thumbnails</t>
+  </si>
+  <si>
+    <t>Avatars</t>
+  </si>
+  <si>
+    <t>Google search</t>
+  </si>
+  <si>
+    <t>Other images</t>
+  </si>
+  <si>
+    <t>Ad Skipper</t>
+  </si>
+  <si>
+    <t>Enable or disable the options you want. Select the video thumbnail's appearance. For a more detailed description of the options click here</t>
+  </si>
+  <si>
+    <t>Enable or disable the extension and the corresponding options for YouTube</t>
+  </si>
+  <si>
+    <t>Enable or disable the extension and the corresponding options for YouTube Music</t>
+  </si>
+  <si>
+    <t>Enable or disable the extension and the corresponding options for YouTube videos embedded in sites</t>
+  </si>
+  <si>
+    <t>Hides various images in Google search such as the video thumbnails</t>
+  </si>
+  <si>
+    <t>Blocks the video keeping only the audio</t>
+  </si>
+  <si>
+    <t>Hides the video thumbnails</t>
+  </si>
+  <si>
+    <t>Hides the images of channel/user avatars</t>
+  </si>
+  <si>
+    <t>Hides various other images</t>
+  </si>
+  <si>
+    <t>Skips the YouTube ads</t>
+  </si>
+  <si>
+    <t>Donate to help us improve the extension and keep it free and up to date</t>
+  </si>
+  <si>
+    <t>Developer: Nick Pantelidis</t>
+  </si>
+  <si>
+    <t>For problems or suggestions, please contact me via email or at the Chrome Web Store.If you wish to contribute translating the extension in another language, please contact me via email</t>
+  </si>
+  <si>
+    <t>Current tab</t>
+  </si>
+  <si>
+    <t>Current page</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Configuration for one page</t>
+  </si>
+  <si>
+    <t>Allow the enabling/disabling of the extension's function for only one page from the popup</t>
+  </si>
+  <si>
+    <t>Change of options for current tab and page</t>
+  </si>
+  <si>
+    <t>Enable this option to be able to change the options of YouTube, YouTube Music and Other sites for the current tab and page from the popup</t>
+  </si>
+  <si>
+    <t>This page provides detailed description on each of the extension options and instructions on using the popup (the window that appears when you click the extension's icon)</t>
+  </si>
+  <si>
+    <t>How to use the popup*</t>
+  </si>
+  <si>
+    <t>Enables/disables the extension for YouTube. When this option is enabled you can enable/disable the corresponding options for YouTube</t>
+  </si>
+  <si>
+    <t>Enables/disables the extension for YouTube  Music. When this option is enabled you can enable/disable the corresponding options for YouTube Music</t>
+  </si>
+  <si>
+    <t>Enables/disables the extension for YouTube  videos embedded in other sites. When this option is enabled you can enable/disable the corresponding options for these videos</t>
+  </si>
+  <si>
+    <t>Hides various images in Google search such as the video thumbnails, images in the side panel etc. Not all use/search cases are covered. We guarantee that images will not appear if you search for a singer or song. For example if you search for a football team it is very likely that not all images will be hidden</t>
+  </si>
+  <si>
+    <t>Blocks the video, keeping only the audio in YouTube/YouTube Music videos. When this option is enabled, the video's progress bar is not hidden by default. The video in live stream is hidden but not blocked</t>
+  </si>
+  <si>
+    <t>Hides the YouTube video thumbnails wherever they appear (YouTube Homepage, Featured Videos, YouTube Search and respectively for YouTube Music)</t>
+  </si>
+  <si>
+    <t>Hides the images of channel/user avatars wherever they appear on YouTube/Youtube Music. For example, the avatar of the channel that uploaded the video, the avatars of the users who commented on the video, etc</t>
+  </si>
+  <si>
+    <t>Hides the channel art and the images in the side panel on YouTube search that usually appear when you search for a person and various other images on YouTube/YouTube Music</t>
+  </si>
+  <si>
+    <t>*If you have all four of the above options enabled ('Video', 'Thumbnails', 'Avatars' and 'Other images'), the images are not only hidden but also blocked and not downloaded so the page loads faster and you save more bandwidth</t>
+  </si>
+  <si>
+    <t>Skips the ads on YouTube/YouTube Music</t>
+  </si>
+  <si>
+    <t>1. When you hover the mouse over the various options, a brief description of what each one does is displayed. To apply the changes you need to press the 'OK' button that appears when you change an option or press the Enter key</t>
+  </si>
+  <si>
+    <t>Thumbnail appearance</t>
+  </si>
+  <si>
+    <t>Select how you want the thumbnails on YouTube to appear (if the 'Thumbnails' option is enabled):</t>
+  </si>
+  <si>
+    <t>More options</t>
+  </si>
+  <si>
+    <t>Quick access buttons</t>
+  </si>
+  <si>
+    <t>The extension adds two buttons on YouTube: 1) In the YouTube topbar from which you can hide or show the images of the page. 2) Ιn YouTube video toolbar from which you can hide or show the video. If you hide/show the video many times in a short time the video may throw error so the page will be reloaded. The settings from the quick access buttons will only aplly to the current page. When the page changes these setings are removed</t>
+  </si>
+  <si>
+    <t>Adds two buttons on YouTube, from which you can hide/show the video and images without using the popup</t>
+  </si>
+  <si>
+    <t>Show the video. The page may be reloaded</t>
+  </si>
+  <si>
+    <t>Hide the video. The page may be reloaded</t>
+  </si>
+  <si>
+    <t>Coming soon</t>
+  </si>
+  <si>
+    <t>Coming later</t>
+  </si>
+  <si>
+    <t>Overview</t>
+  </si>
+  <si>
+    <t>Video Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Channel </t>
+  </si>
+  <si>
+    <t>Enable the extension for all tabs</t>
+  </si>
+  <si>
+    <t>Disable the extension for all tabs</t>
+  </si>
+  <si>
+    <t>Enable the extension for this tab</t>
+  </si>
+  <si>
+    <t>Disable the extension for this tab</t>
+  </si>
+  <si>
+    <t>Remove the settings for this tab</t>
+  </si>
+  <si>
+    <t>Enable the extension for this page</t>
+  </si>
+  <si>
+    <t>Disable the extension for this page</t>
+  </si>
+  <si>
+    <t>Remove the settings for this page</t>
+  </si>
+  <si>
+    <t>or press 'Enter'</t>
+  </si>
+  <si>
+    <t>Become a Patron!</t>
+  </si>
+  <si>
+    <t>Translate the extension</t>
+  </si>
+  <si>
+    <t>views</t>
+  </si>
+  <si>
+    <t>Configure the extension's function for this tab only</t>
+  </si>
+  <si>
+    <t>Configure the extension's function for this page only. When the page changes, these settings are removed</t>
+  </si>
+  <si>
+    <t>Hides various images in Google search</t>
+  </si>
+  <si>
+    <t>YouTube videos embedded in other sites</t>
+  </si>
+  <si>
+    <t>Popup options</t>
+  </si>
+  <si>
+    <t>the window that appears when you click the extension's icon</t>
+  </si>
+  <si>
+    <t>Options Page</t>
+  </si>
+  <si>
+    <t>Popup Window</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The only Chrome extension that not only disables the video but also blocks it. The best extension to reduce the use of CPU and GPU, save bandwidth and hide NSFW content. Works on YouTube, YouTube Music and YouTube videos embedded in sites. FEATURES (ALL OPTIONAL): Blocks the video keeping only the audio. Hides the video thumbnails. Hides the images of channel/user avatars. Hides various other images. Skips the ads. Separate options for YouTube, YouTube Music and YouTube videos embedded in other sites. You can enable/disable the extension for all tabs or for specific tabs. Extra options:The user can select the appearance of the video thumbnails in YouTube. Hides the thumbnails and various other images in Google search when you search for a song or a singer. Quick access buttons: two extra buttons on YouTube in order to hide the thumbnails and block the video quickly without using the popup window. Notes: Live YouTube videos are hidden but not blocked. If you have enabled the features 1, 2, 3, 4 the images are not only hidden but also blocked saving more bandwidth. Thanks to Aris Christoforidis https://github.com/ArisChristoforidis, Xhino Mullaymeri and Stelios Apostolou for their useful suggestions and their help. Thanks to Ashish Bansal https://github.com/Ashish-Bansal. Thanks to all the users of Stack Overflow https://stackoverflow.com. Thanks to all the users of the extension that they have suggested corrections, improvements and new features. The extension does not collect any kind of user data. The user options are stored locally in the user's browser. Date of release: 02/10/2019</t>
+  </si>
+  <si>
+    <t>Inside YouTube</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Extension's Pages</t>
+  </si>
+  <si>
+    <t>Help Page</t>
+  </si>
+  <si>
+    <t>If you have this option enabled from the 'Options' page you will be able to configure the extension's function for a specific page from the popup as shown in image 1. To use this feature from the popup, enable/disable the extension for only one page from the on/off button. The options that will be applied are the ones you have selected in the 'Options' page.  If this page changes then these settings will be deleted. By default, when you are on an empty tab or on the browser's settings, history, or similar pages this feature is disabled</t>
+  </si>
+  <si>
+    <t>If you have this option enabled from the 'Options' page you will be able to set different options to be enabled/disabled for YouTube, YouTube Music and Other sites for current tab and page as shown in image 2. When you enable the extension for all tabs the options that will be applied are the ones you have selected in the 'Options' page. However, for the current tab and page, when you enable the extension next to YouTube, YouTube Music etc (when they are enabled) will also appear the options Video, Thumbnails etc. These options will be represented as icons. If you hover the mouse over an icon you can see the name of the option (video, thumbnails etc). A green icon means that this option is enabled and a grey icon that the option is disabled. You can enable/disable these options by clicking on them</t>
+  </si>
+  <si>
+    <t>From this on/off button (see image 3) you can enable/disable the extension for all tabs with the options you have selected in the 'Options' page. To apply the changes you need to click the 'OK' button or press the Enter key</t>
+  </si>
+  <si>
+    <t>From this option you can configure the extension's function for the current tab. You can enable/disable the extension for the current tab using the on/off button. If you don't want to have the extension enabled/disabled for this tab you can use the x button that appears next to on/off button (when you have clicked either the on or off) to remove the settings for the current tab. If you enable the extension for the current tab an additional menu will appear from which you will be able to enable/disable the extension for YouTube, YouTube Music, Other sites and Google Search separetely with the options you have selected in the 'Options' page. The extension is enabled for example for YouTube if the circle next to the YouTube option is green. If it is red the extension is disabled for this option. To apply the changes you need to click the 'OK' button or press the Enter key. Then any page that opens on this tab will have these settings applied to it</t>
+  </si>
+  <si>
+    <t>Contact Page</t>
+  </si>
+  <si>
+    <t>Donation Page</t>
+  </si>
+  <si>
+    <t>About Page</t>
+  </si>
+  <si>
+    <t>New in version 1</t>
+  </si>
+  <si>
+    <t>ENGLISH TEXT</t>
+  </si>
+  <si>
+    <t>TRANSLATED TEXT</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>Translate all the texts of the sheet Basic and More</t>
+  </si>
+  <si>
+    <t>Try to do an accurate translation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Thanks for your support! I really appreciate it!</t>
+  </si>
+  <si>
+    <t>Words that in your language they may be used as they are (e.g ok, on, off), leave them as they are</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -52,10 +414,37 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -90,7 +479,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -102,7 +491,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -119,9 +508,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -149,14 +538,31 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -184,6 +590,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -335,13 +758,642 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="117.21875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="36.88671875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="11"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.3" right="0.3" top="0.61" bottom="0.37" header="0.1" footer="0.1"/>
+  <pageSetup paperSize="9" pageOrder="overThenDown" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;P</oddHeader>
+    <oddFooter>&amp;F</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="126.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="144.21875" customWidth="1"/>
+    <col min="2" max="2" width="49" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="66" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/texts.xlsx
+++ b/files/texts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\MusicModeForYoutubePrivate\MusicModeForYoutube\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\MusicModeForYouTubeMiscellaneous\TEXTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D0C05C-07B0-4512-A2B0-BBF219597B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119D753-EFD8-4F1E-8F23-A4FD2F12F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
   <si>
     <t>Blocks the video keeping only the audio on YouTube and YouTube Music.</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Developer: Nick Pantelidis</t>
   </si>
   <si>
-    <t>For problems or suggestions, please contact me via email or at the Chrome Web Store.If you wish to contribute translating the extension in another language, please contact me via email</t>
-  </si>
-  <si>
     <t>Current tab</t>
   </si>
   <si>
@@ -340,6 +337,18 @@
   </si>
   <si>
     <t>Words that in your language they may be used as they are (e.g ok, on, off), leave them as they are</t>
+  </si>
+  <si>
+    <t>For problems or suggestions, please contact me via email or at the Chrome Web Store</t>
+  </si>
+  <si>
+    <t>Hide images</t>
+  </si>
+  <si>
+    <t>Show images</t>
+  </si>
+  <si>
+    <t>Translated by Thunderarea</t>
   </si>
 </sst>
 </file>
@@ -355,7 +364,8 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <charset val="1"/>
+      <family val="2"/>
+      <charset val="161"/>
     </font>
     <font>
       <b/>
@@ -764,7 +774,7 @@
   </sheetPr>
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -776,18 +786,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
@@ -795,7 +805,7 @@
     </row>
     <row r="5" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
@@ -820,10 +830,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -834,15 +844,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +862,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,77 +959,77 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="2"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
@@ -1027,27 +1037,27 @@
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
@@ -1067,148 +1077,163 @@
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>31</v>
+      <c r="A49" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>70</v>
+      <c r="A50" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>74</v>
+      <c r="A51" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>62</v>
+      <c r="A55" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="7" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" s="1"/>
+      <c r="A70" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="7" t="s">
-        <v>88</v>
+      <c r="A71" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
+      <c r="A72" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="1"/>
-    </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="1"/>
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1219,8 +1244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1231,118 +1256,118 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="66" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -1350,9 +1375,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
@@ -1360,7 +1385,7 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
@@ -1370,27 +1395,27 @@
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/files/texts.xlsx
+++ b/files/texts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECTS\MusicModeForYouTubeMiscellaneous\TEXTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9119D753-EFD8-4F1E-8F23-A4FD2F12F524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A6E229-A6A8-43B2-8405-1CCAC3BCD909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIONS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="110">
   <si>
     <t>Blocks the video keeping only the audio on YouTube and YouTube Music.</t>
   </si>
@@ -349,6 +349,9 @@
   </si>
   <si>
     <t>Translated by Thunderarea</t>
+  </si>
+  <si>
+    <t>Follow</t>
   </si>
 </sst>
 </file>
@@ -830,9 +833,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B81"/>
+  <dimension ref="A1:B82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A67" workbookViewId="0">
       <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
@@ -1087,153 +1090,158 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="145.19999999999999" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
+    <row r="67" spans="1:1" ht="145.19999999999999" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="7" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="1"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="7" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A78" s="4"/>
-    </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="1"/>
+      <c r="A79" s="4"/>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="1"/>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1244,7 +1252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
